--- a/folder_test/formato_estandar_prueba_2.xlsx
+++ b/folder_test/formato_estandar_prueba_2.xlsx
@@ -1827,7 +1827,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="66"/>
       <c r="B24" s="67"/>
       <c r="C24" s="68"/>
@@ -1847,7 +1847,7 @@
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="66"/>
       <c r="B25" s="67"/>
       <c r="C25" s="68"/>
